--- a/testData/126邮箱联系人.xlsx
+++ b/testData/126邮箱联系人.xlsx
@@ -10,14 +10,14 @@
     <sheet name="联系人" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -41,6 +41,9 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF008B00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +71,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -78,6 +81,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -388,10 +392,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -399,10 +403,7 @@
     <col customWidth="1" max="1" min="1" style="1" width="11.375"/>
     <col customWidth="1" max="2" min="2" style="1" width="21.125"/>
     <col customWidth="1" max="3" min="3" style="1" width="29.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="9"/>
-    <col customWidth="1" max="10" min="5" style="1" width="9"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="14.875"/>
-    <col customWidth="1" max="16384" min="12" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="4" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,16 +460,9 @@
           <t>y</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>我爱祖国</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2019-08-09 15:30:28</t>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -485,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -501,8 +495,7 @@
     <col customWidth="1" max="8" min="8" style="1" width="13"/>
     <col customWidth="1" max="9" min="9" style="1" width="17"/>
     <col customWidth="1" max="10" min="10" style="1" width="14.75"/>
-    <col customWidth="1" max="11" min="11" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="12" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="11" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,6 +589,16 @@
           <t>y</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2019-08-12 10:29:32</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -636,6 +639,16 @@
           <t>y</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2019-08-12 10:29:40</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -706,21 +719,61 @@
           <t>y</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2019-08-12 10:29:48</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="C3" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10"/>
-    <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="C3" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10"/>
-    <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
+    <hyperlink ref="C2" r:id="rId37"/>
+    <hyperlink ref="G2" r:id="rId38"/>
+    <hyperlink ref="C3" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="C4" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId42"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
